--- a/Java/BGTransport/src/main/resources/excel/tram_station_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/tram_station_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{23874F40-B8A7-476B-9539-5E45B09C5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{669A5712-8063-4AA6-A863-AD0E1D23234C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{23874F40-B8A7-476B-9539-5E45B09C5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7971BBF-8F25-40E7-AEE5-082F3E48781A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>BG</t>
   </si>
   <si>
-    <t>station</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>province</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -219,6 +219,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -238,22 +254,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -268,13 +268,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8CD2AB4-F253-4FBB-B2B7-622175E07D19}" name="Tabella1" displayName="Tabella1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8CD2AB4-F253-4FBB-B2B7-622175E07D19}" name="Tabella1" displayName="Tabella1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D17" xr:uid="{C8CD2AB4-F253-4FBB-B2B7-622175E07D19}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EF02DC77-CA41-4F09-B644-0F81D32931DB}" name="station" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D6CBECE8-F8DD-4EEA-B228-3B4E4955BFC1}" name="address" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{91EF7CDF-224E-4D45-92B3-14C3BDF6F43E}" name="town" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{343A7819-8A29-49E8-B24F-5E9FD2620600}" name="province" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EF02DC77-CA41-4F09-B644-0F81D32931DB}" name="name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D6CBECE8-F8DD-4EEA-B228-3B4E4955BFC1}" name="address" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{91EF7CDF-224E-4D45-92B3-14C3BDF6F43E}" name="town" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{343A7819-8A29-49E8-B24F-5E9FD2620600}" name="province" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,16 +557,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
